--- a/persistence/src/main/java/com/gazizov/railwaymanager/persistence/SQL/TestTable.xlsx
+++ b/persistence/src/main/java/com/gazizov/railwaymanager/persistence/SQL/TestTable.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -487,7 +488,7 @@
   <dimension ref="B3:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="G5:L23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
